--- a/references/observatory_names.xlsx
+++ b/references/observatory_names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbede\Documents\IRD_Drive\BETSAKA\Données\ROR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbede\Documents\Statistiques\ROR\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628D994B-28D6-420F-8F69-1CD66732833E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3574F3C1-F9A5-4839-A929-DDC59B48B8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>code</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Tolanaro</t>
   </si>
   <si>
-    <t>Menabe-North-East</t>
-  </si>
-  <si>
     <t>Tropical climate with a dry season, exposed to insecurity (cattle theft), rice cultivation, legume production for export, fish farming.</t>
   </si>
   <si>
@@ -190,6 +187,12 @@
   </si>
   <si>
     <t>Increasing maize cultivation competing with rice and tubers, significant coffee production, intermediate climatic zone between semi-arid west and humid east.</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>Menabe North-East</t>
   </si>
 </sst>
 </file>
@@ -539,31 +542,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="160.21875" customWidth="1"/>
+    <col min="2" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="160.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -571,10 +577,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -582,10 +591,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -593,10 +605,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -604,10 +619,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -615,10 +633,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -626,10 +647,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -637,10 +661,13 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -648,10 +675,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -659,10 +689,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22</v>
       </c>
@@ -670,10 +703,13 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23</v>
       </c>
@@ -681,10 +717,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24</v>
       </c>
@@ -692,10 +731,13 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>31</v>
       </c>
@@ -703,10 +745,13 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -714,10 +759,13 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>41</v>
       </c>
@@ -725,10 +773,13 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>42</v>
       </c>
@@ -736,10 +787,13 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>43</v>
       </c>
@@ -747,10 +801,13 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>51</v>
       </c>
@@ -758,10 +815,13 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -769,10 +829,13 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45</v>
       </c>
@@ -780,10 +843,13 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>61</v>
       </c>
@@ -791,10 +857,13 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -802,10 +871,13 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -813,10 +885,13 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -824,10 +899,13 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>71</v>
       </c>
@@ -835,18 +913,24 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>52</v>
       </c>
       <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
         <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
